--- a/Code/Results/Cases/Case_0_140/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_140/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2237960461641251</v>
+        <v>0.06694645484776629</v>
       </c>
       <c r="D2">
-        <v>0.4202480495088139</v>
+        <v>0.3380945829319444</v>
       </c>
       <c r="E2">
-        <v>0.09228938481016158</v>
+        <v>0.04560622667644765</v>
       </c>
       <c r="F2">
-        <v>8.024433292365188</v>
+        <v>4.950746586021864</v>
       </c>
       <c r="G2">
-        <v>0.0006868170694549787</v>
+        <v>0.002595379632432633</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.122762776346207</v>
+        <v>4.172259820914093</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07893645482684519</v>
+        <v>0.06423515957794024</v>
       </c>
       <c r="M2">
-        <v>7.324471514920248</v>
+        <v>3.217101330326045</v>
       </c>
       <c r="N2">
-        <v>2.423364986300498</v>
+        <v>1.413707751416609</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1892386034132016</v>
+        <v>0.0592750218616942</v>
       </c>
       <c r="D3">
-        <v>0.3572488989217106</v>
+        <v>0.3323401450663681</v>
       </c>
       <c r="E3">
-        <v>0.08083779138302916</v>
+        <v>0.0425945261274876</v>
       </c>
       <c r="F3">
-        <v>6.793730627145464</v>
+        <v>4.786912834133659</v>
       </c>
       <c r="G3">
-        <v>0.0007127383214000256</v>
+        <v>0.002608374373772103</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.198468958174374</v>
+        <v>4.058759093110382</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07196053516037182</v>
+        <v>0.06224955109791352</v>
       </c>
       <c r="M3">
-        <v>6.25282220026557</v>
+        <v>2.983587420919974</v>
       </c>
       <c r="N3">
-        <v>2.20194585067199</v>
+        <v>1.342186129967388</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1692285532221405</v>
+        <v>0.0545575295000873</v>
       </c>
       <c r="D4">
-        <v>0.3223434751634215</v>
+        <v>0.3291448820554876</v>
       </c>
       <c r="E4">
-        <v>0.07404001087035894</v>
+        <v>0.04073627938670654</v>
       </c>
       <c r="F4">
-        <v>6.098896244474332</v>
+        <v>4.691117266246266</v>
       </c>
       <c r="G4">
-        <v>0.0007284401705721219</v>
+        <v>0.002616737082757062</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.67841266765123</v>
+        <v>3.993081151098693</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06773601147999386</v>
+        <v>0.06103312933895211</v>
       </c>
       <c r="M4">
-        <v>5.623746891978186</v>
+        <v>2.841585365850875</v>
       </c>
       <c r="N4">
-        <v>2.067778734571334</v>
+        <v>1.298753576954596</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1613056304018841</v>
+        <v>0.05263274539684915</v>
       </c>
       <c r="D5">
-        <v>0.3088691599115663</v>
+        <v>0.3279261239148497</v>
       </c>
       <c r="E5">
-        <v>0.07131354397096956</v>
+        <v>0.03997668394091747</v>
       </c>
       <c r="F5">
-        <v>5.827805391536629</v>
+        <v>4.653259618105096</v>
       </c>
       <c r="G5">
-        <v>0.0007348201848602627</v>
+        <v>0.002620242048736728</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.475914993728736</v>
+        <v>3.967304793846353</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06602551979366211</v>
+        <v>0.06053815395539885</v>
       </c>
       <c r="M5">
-        <v>5.373018862797522</v>
+        <v>2.784054939707488</v>
       </c>
       <c r="N5">
-        <v>2.013504122625363</v>
+        <v>1.281177600569208</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1600022436335706</v>
+        <v>0.05231297746340147</v>
       </c>
       <c r="D6">
-        <v>0.3066721836177919</v>
+        <v>0.3277287359880177</v>
       </c>
       <c r="E6">
-        <v>0.07086309045438099</v>
+        <v>0.03985041011627999</v>
       </c>
       <c r="F6">
-        <v>5.783440188244072</v>
+        <v>4.647043869426</v>
       </c>
       <c r="G6">
-        <v>0.0007358793181721725</v>
+        <v>0.002620829926502153</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.442798605164256</v>
+        <v>3.963083717934353</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0657420713502006</v>
+        <v>0.06045600857929401</v>
       </c>
       <c r="M6">
-        <v>5.33168514879759</v>
+        <v>2.774522112480071</v>
       </c>
       <c r="N6">
-        <v>2.004514690506227</v>
+        <v>1.278266618913847</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1691208471228123</v>
+        <v>0.05453158150083937</v>
       </c>
       <c r="D7">
-        <v>0.3221589454163905</v>
+        <v>0.3291281101753185</v>
       </c>
       <c r="E7">
-        <v>0.07400308082840468</v>
+        <v>0.04072604480015229</v>
       </c>
       <c r="F7">
-        <v>6.095195060382935</v>
+        <v>4.690601962742818</v>
       </c>
       <c r="G7">
-        <v>0.000728526249109304</v>
+        <v>0.00261678395817877</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.675646377965307</v>
+        <v>3.992729549205791</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06771290265616869</v>
+        <v>0.061026450940318</v>
       </c>
       <c r="M7">
-        <v>5.620344577825392</v>
+        <v>2.840808140000775</v>
       </c>
       <c r="N7">
-        <v>2.067045210309004</v>
+        <v>1.298516039969911</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2115792299956922</v>
+        <v>0.0643024979012381</v>
       </c>
       <c r="D8">
-        <v>0.3976031458793585</v>
+        <v>0.3360392937708383</v>
       </c>
       <c r="E8">
-        <v>0.08828186678364958</v>
+        <v>0.04456962748237459</v>
       </c>
       <c r="F8">
-        <v>7.585216783343611</v>
+        <v>4.893244184678423</v>
       </c>
       <c r="G8">
-        <v>0.0006958235376217647</v>
+        <v>0.002599780885489844</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.792474692136409</v>
+        <v>4.132279290639303</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07651633231139954</v>
+        <v>0.06354997112855187</v>
       </c>
       <c r="M8">
-        <v>6.947818880496442</v>
+        <v>3.136294114788797</v>
       </c>
       <c r="N8">
-        <v>2.346617048263369</v>
+        <v>1.388948167637892</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3093743536548601</v>
+        <v>0.08343264707106357</v>
       </c>
       <c r="D9">
-        <v>0.5890331818656307</v>
+        <v>0.3523514522009066</v>
       </c>
       <c r="E9">
-        <v>0.1191726534128179</v>
+        <v>0.05203866304854188</v>
       </c>
       <c r="F9">
-        <v>11.20715707797243</v>
+        <v>5.329974994012503</v>
       </c>
       <c r="G9">
-        <v>0.0006276323191203998</v>
+        <v>0.00256945789839395</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.527608425558185</v>
+        <v>4.438755481021985</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.09451082532822142</v>
+        <v>0.06851915543617082</v>
       </c>
       <c r="M9">
-        <v>9.891462183811029</v>
+        <v>3.727142568257221</v>
       </c>
       <c r="N9">
-        <v>2.911738794132049</v>
+        <v>1.570038496100807</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4028478385299081</v>
+        <v>0.09750786653569321</v>
       </c>
       <c r="D10">
-        <v>0.7907174758039446</v>
+        <v>0.3661303760228236</v>
       </c>
       <c r="E10">
-        <v>0.1463441690502378</v>
+        <v>0.05749026452753725</v>
       </c>
       <c r="F10">
-        <v>14.84417569731306</v>
+        <v>5.676678987301273</v>
       </c>
       <c r="G10">
-        <v>0.000569076937561787</v>
+        <v>0.002548983845367392</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.29488212805373</v>
+        <v>4.685363911683964</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.108899938521148</v>
+        <v>0.07218129541893603</v>
       </c>
       <c r="M10">
-        <v>12.54251674547623</v>
+        <v>4.168927770780869</v>
       </c>
       <c r="N10">
-        <v>3.342066325937367</v>
+        <v>1.705297953045658</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4575811081521977</v>
+        <v>0.1039243247435593</v>
       </c>
       <c r="D11">
-        <v>0.9157980011761708</v>
+        <v>0.3728139259267209</v>
       </c>
       <c r="E11">
-        <v>0.1613025027985096</v>
+        <v>0.05996387984879448</v>
       </c>
       <c r="F11">
-        <v>17.02558913256905</v>
+        <v>5.840434975065818</v>
       </c>
       <c r="G11">
-        <v>0.0005371645880284806</v>
+        <v>0.00254005335619057</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.96231215454591</v>
+        <v>4.802534172299119</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1161544009312294</v>
+        <v>0.07384952009905987</v>
       </c>
       <c r="M11">
-        <v>14.01568300895707</v>
+        <v>4.371749322499397</v>
       </c>
       <c r="N11">
-        <v>3.542640264311132</v>
+        <v>1.76729793222313</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4818785661660741</v>
+        <v>0.1063567547499815</v>
       </c>
       <c r="D12">
-        <v>0.972756695169295</v>
+        <v>0.3754067132685464</v>
       </c>
       <c r="E12">
-        <v>0.1677382718086236</v>
+        <v>0.06089976547637477</v>
       </c>
       <c r="F12">
-        <v>18.00189800237609</v>
+        <v>5.903348795310421</v>
       </c>
       <c r="G12">
-        <v>0.000523505901631348</v>
+        <v>0.002536726074582002</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.71019536134054</v>
+        <v>4.847648031713106</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1191190718118307</v>
+        <v>0.07448153788870115</v>
       </c>
       <c r="M12">
-        <v>14.65005800505574</v>
+        <v>4.448832753353656</v>
       </c>
       <c r="N12">
-        <v>3.61945978716895</v>
+        <v>1.790841933237459</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4764261898467339</v>
+        <v>0.1058327577585487</v>
       </c>
       <c r="D13">
-        <v>0.9599034430046629</v>
+        <v>0.3748455235473784</v>
       </c>
       <c r="E13">
-        <v>0.1663045184632246</v>
+        <v>0.06069824063116513</v>
       </c>
       <c r="F13">
-        <v>17.78248898153657</v>
+        <v>5.889758452467163</v>
       </c>
       <c r="G13">
-        <v>0.0005265445529509805</v>
+        <v>0.002537440250192292</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.54203896933979</v>
+        <v>4.837898424572359</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1184669265740581</v>
+        <v>0.07434540884479901</v>
       </c>
       <c r="M13">
-        <v>14.5087722423126</v>
+        <v>4.432218819036166</v>
       </c>
       <c r="N13">
-        <v>3.602873644040471</v>
+        <v>1.785768402554083</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4594884023244106</v>
+        <v>0.1041243848442832</v>
       </c>
       <c r="D14">
-        <v>0.9202388653961293</v>
+        <v>0.3730259835948857</v>
       </c>
       <c r="E14">
-        <v>0.1618120848331088</v>
+        <v>0.06004089157711334</v>
       </c>
       <c r="F14">
-        <v>17.10208271998926</v>
+        <v>5.845592632752755</v>
       </c>
       <c r="G14">
-        <v>0.0005360813850847578</v>
+        <v>0.002539778530083367</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.02087415950407</v>
+        <v>4.806230647469164</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1163926332496885</v>
+        <v>0.07390151081074237</v>
       </c>
       <c r="M14">
-        <v>14.06592222083697</v>
+        <v>4.378085347484131</v>
       </c>
       <c r="N14">
-        <v>3.548941752580447</v>
+        <v>1.769233598384517</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4496749833994045</v>
+        <v>0.1030783244578686</v>
       </c>
       <c r="D15">
-        <v>0.8974463384886064</v>
+        <v>0.3719195850374604</v>
       </c>
       <c r="E15">
-        <v>0.1591820366274703</v>
+        <v>0.05963814253684063</v>
       </c>
       <c r="F15">
-        <v>16.70880303266614</v>
+        <v>5.818658438196849</v>
       </c>
       <c r="G15">
-        <v>0.000541674967477368</v>
+        <v>0.002541217873274693</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.71985074529528</v>
+        <v>4.786930929999329</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1151566763246521</v>
+        <v>0.07362964819754581</v>
       </c>
       <c r="M15">
-        <v>13.80663431935588</v>
+        <v>4.344963807993764</v>
       </c>
       <c r="N15">
-        <v>3.51602562921272</v>
+        <v>1.759114096641667</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.399625607203987</v>
+        <v>0.09708886863907651</v>
       </c>
       <c r="D16">
-        <v>0.7835031986253682</v>
+        <v>0.3657021305420756</v>
       </c>
       <c r="E16">
-        <v>0.1454426548309833</v>
+        <v>0.05732848815120306</v>
       </c>
       <c r="F16">
-        <v>14.716724109182</v>
+        <v>5.666101591765937</v>
       </c>
       <c r="G16">
-        <v>0.0005710070539092335</v>
+        <v>0.002549575133623728</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.19762456548131</v>
+        <v>4.677809186016731</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1084469189606025</v>
+        <v>0.07207231640371958</v>
       </c>
       <c r="M16">
-        <v>12.45392316881271</v>
+        <v>4.15571126220334</v>
       </c>
       <c r="N16">
-        <v>3.329069122406565</v>
+        <v>1.701255423044643</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3727941090636762</v>
+        <v>0.09341850051168876</v>
       </c>
       <c r="D17">
-        <v>0.7241204678250313</v>
+        <v>0.3619958209788479</v>
       </c>
       <c r="E17">
-        <v>0.1378413003598489</v>
+        <v>0.05591002979421589</v>
       </c>
       <c r="F17">
-        <v>13.66051859100634</v>
+        <v>5.574083775118311</v>
       </c>
       <c r="G17">
-        <v>0.0005873123666708346</v>
+        <v>0.00255479977285545</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.3923880304207</v>
+        <v>4.612162619410213</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1045582726295962</v>
+        <v>0.07111750858075538</v>
       </c>
       <c r="M17">
-        <v>11.70832454970574</v>
+        <v>4.040094218667633</v>
       </c>
       <c r="N17">
-        <v>3.215720411173209</v>
+        <v>1.665880156608722</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3583584504589794</v>
+        <v>0.09130863537332345</v>
       </c>
       <c r="D18">
-        <v>0.69269994235799</v>
+        <v>0.359903021468341</v>
       </c>
       <c r="E18">
-        <v>0.1336803281661574</v>
+        <v>0.05509356688321532</v>
       </c>
       <c r="F18">
-        <v>13.0963681260402</v>
+        <v>5.521723793211549</v>
       </c>
       <c r="G18">
-        <v>0.0005962626075743573</v>
+        <v>0.002557840958676909</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9.962856720623904</v>
+        <v>4.574872165794204</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1023786204585591</v>
+        <v>0.07056854667615653</v>
       </c>
       <c r="M18">
-        <v>11.30143069398494</v>
+        <v>3.973767777646344</v>
       </c>
       <c r="N18">
-        <v>3.150965344746794</v>
+        <v>1.645577546462732</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3536145655803153</v>
+        <v>0.09059446209825239</v>
       </c>
       <c r="D19">
-        <v>0.682457986572274</v>
+        <v>0.3592010653127318</v>
       </c>
       <c r="E19">
-        <v>0.1323017946017941</v>
+        <v>0.05481702020256662</v>
       </c>
       <c r="F19">
-        <v>12.91165668088246</v>
+        <v>5.504091819711391</v>
       </c>
       <c r="G19">
-        <v>0.000599231981143543</v>
+        <v>0.002558876872336297</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.822311572315186</v>
+        <v>4.562325785612046</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1016487345799035</v>
+        <v>0.07038271613193814</v>
       </c>
       <c r="M19">
-        <v>11.16684833279325</v>
+        <v>3.951340181726351</v>
       </c>
       <c r="N19">
-        <v>3.129111437969073</v>
+        <v>1.638711091475699</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3755400594384923</v>
+        <v>0.09380908477606908</v>
       </c>
       <c r="D20">
-        <v>0.7301398785043318</v>
+        <v>0.3623863153528646</v>
       </c>
       <c r="E20">
-        <v>0.1386270820588855</v>
+        <v>0.05606108887236161</v>
       </c>
       <c r="F20">
-        <v>13.76817086769825</v>
+        <v>5.583820379127701</v>
       </c>
       <c r="G20">
-        <v>0.0005856241826446557</v>
+        <v>0.002554239868140837</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.47439806385376</v>
+        <v>4.619102209962705</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1049658896270529</v>
+        <v>0.07121912715427925</v>
       </c>
       <c r="M20">
-        <v>11.78527119167629</v>
+        <v>4.052383808749369</v>
       </c>
       <c r="N20">
-        <v>3.227739913453206</v>
+        <v>1.669641340308033</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4643385756492648</v>
+        <v>0.1046260975313089</v>
       </c>
       <c r="D21">
-        <v>0.9315554117310398</v>
+        <v>0.3735587300115242</v>
       </c>
       <c r="E21">
-        <v>0.1631045237393849</v>
+        <v>0.06023399237920302</v>
       </c>
       <c r="F21">
-        <v>17.2967213402498</v>
+        <v>5.858540415332641</v>
       </c>
       <c r="G21">
-        <v>0.0005333353612058112</v>
+        <v>0.00253909024630938</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.16991247643276</v>
+        <v>4.815511828975417</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1169941741728948</v>
+        <v>0.07403188661488258</v>
       </c>
       <c r="M21">
-        <v>14.1933406494939</v>
+        <v>4.39397797210367</v>
       </c>
       <c r="N21">
-        <v>3.564757760071814</v>
+        <v>1.774088493501722</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.5477007148351731</v>
+        <v>0.111711471808178</v>
       </c>
       <c r="D22">
-        <v>1.130911196561982</v>
+        <v>0.3812222341598499</v>
       </c>
       <c r="E22">
-        <v>0.1846006452966726</v>
+        <v>0.06295650061222702</v>
       </c>
       <c r="F22">
-        <v>20.65970507359378</v>
+        <v>6.043366135454391</v>
       </c>
       <c r="G22">
-        <v>0.0004879958442764371</v>
+        <v>0.002529506473611432</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.75071909833949</v>
+        <v>4.948226848549837</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1264269544865542</v>
+        <v>0.07587190579486958</v>
       </c>
       <c r="M22">
-        <v>16.30575850363633</v>
+        <v>4.618864110441024</v>
       </c>
       <c r="N22">
-        <v>3.790146647898013</v>
+        <v>1.842734498500022</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4990819783544111</v>
+        <v>0.1079281855825514</v>
       </c>
       <c r="D23">
-        <v>1.013572496705166</v>
+        <v>0.377098258107452</v>
       </c>
       <c r="E23">
-        <v>0.172223606149327</v>
+        <v>0.06150384680079313</v>
       </c>
       <c r="F23">
-        <v>18.69519290244654</v>
+        <v>5.944226232374149</v>
       </c>
       <c r="G23">
-        <v>0.0005140170002902104</v>
+        <v>0.002534592678006686</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.24184509357448</v>
+        <v>4.876987157458075</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1211281996937643</v>
+        <v>0.07488970641890802</v>
       </c>
       <c r="M23">
-        <v>15.09174789330572</v>
+        <v>4.49868407344178</v>
       </c>
       <c r="N23">
-        <v>3.669325643858002</v>
+        <v>1.806062226132383</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3742956241874111</v>
+        <v>0.09363250081618446</v>
       </c>
       <c r="D24">
-        <v>0.727410279567323</v>
+        <v>0.3622096546227453</v>
       </c>
       <c r="E24">
-        <v>0.1382711989479155</v>
+        <v>0.0559927980987176</v>
       </c>
       <c r="F24">
-        <v>13.71937095159893</v>
+        <v>5.579416773958087</v>
       </c>
       <c r="G24">
-        <v>0.0005863886889204375</v>
+        <v>0.002554492884237615</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.43722024687392</v>
+        <v>4.615963419480522</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1047814373877074</v>
+        <v>0.07117318548849738</v>
       </c>
       <c r="M24">
-        <v>11.75041780477594</v>
+        <v>4.046827239591693</v>
       </c>
       <c r="N24">
-        <v>3.222304630039275</v>
+        <v>1.667940799700972</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2804662228054866</v>
+        <v>0.07825676447131968</v>
       </c>
       <c r="D25">
-        <v>0.530151480686925</v>
+        <v>0.3476318194422561</v>
       </c>
       <c r="E25">
-        <v>0.1103175795865461</v>
+        <v>0.05002482166145228</v>
       </c>
       <c r="F25">
-        <v>10.11331266663558</v>
+        <v>5.207427888473717</v>
       </c>
       <c r="G25">
-        <v>0.0006469396211336394</v>
+        <v>0.002577341534515871</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.69906295174988</v>
+        <v>4.352186985479904</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.08951551453480988</v>
+        <v>0.06717279076266891</v>
       </c>
       <c r="M25">
-        <v>9.038712541644287</v>
+        <v>3.566007546668061</v>
       </c>
       <c r="N25">
-        <v>2.756617108371302</v>
+        <v>1.520655096504186</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_140/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_140/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06694645484776629</v>
+        <v>0.2237960461641251</v>
       </c>
       <c r="D2">
-        <v>0.3380945829319444</v>
+        <v>0.4202480495088139</v>
       </c>
       <c r="E2">
-        <v>0.04560622667644765</v>
+        <v>0.09228938481010829</v>
       </c>
       <c r="F2">
-        <v>4.950746586021864</v>
+        <v>8.024433292365217</v>
       </c>
       <c r="G2">
-        <v>0.002595379632432633</v>
+        <v>0.0006868170694587357</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.172259820914093</v>
+        <v>6.122762776346178</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06423515957794024</v>
+        <v>0.07893645482676703</v>
       </c>
       <c r="M2">
-        <v>3.217101330326045</v>
+        <v>7.324471514920219</v>
       </c>
       <c r="N2">
-        <v>1.413707751416609</v>
+        <v>2.423364986300527</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0592750218616942</v>
+        <v>0.189238603412619</v>
       </c>
       <c r="D3">
-        <v>0.3323401450663681</v>
+        <v>0.3572488989217106</v>
       </c>
       <c r="E3">
-        <v>0.0425945261274876</v>
+        <v>0.08083779138299363</v>
       </c>
       <c r="F3">
-        <v>4.786912834133659</v>
+        <v>6.793730627145464</v>
       </c>
       <c r="G3">
-        <v>0.002608374373772103</v>
+        <v>0.0007127383214515514</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.058759093110382</v>
+        <v>5.198468958174431</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06224955109791352</v>
+        <v>0.07196053516023682</v>
       </c>
       <c r="M3">
-        <v>2.983587420919974</v>
+        <v>6.25282220026557</v>
       </c>
       <c r="N3">
-        <v>1.342186129967388</v>
+        <v>2.20194585067199</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0545575295000873</v>
+        <v>0.1692285532221689</v>
       </c>
       <c r="D4">
-        <v>0.3291448820554876</v>
+        <v>0.3223434751634358</v>
       </c>
       <c r="E4">
-        <v>0.04073627938670654</v>
+        <v>0.07404001087039092</v>
       </c>
       <c r="F4">
-        <v>4.691117266246266</v>
+        <v>6.098896244474275</v>
       </c>
       <c r="G4">
-        <v>0.002616737082757062</v>
+        <v>0.0007284401705772973</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.993081151098693</v>
+        <v>4.678412667651145</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06103312933895211</v>
+        <v>0.06773601148015729</v>
       </c>
       <c r="M4">
-        <v>2.841585365850875</v>
+        <v>5.623746891978158</v>
       </c>
       <c r="N4">
-        <v>1.298753576954596</v>
+        <v>2.067778734571363</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05263274539684915</v>
+        <v>0.1613056304016993</v>
       </c>
       <c r="D5">
-        <v>0.3279261239148497</v>
+        <v>0.3088691599115663</v>
       </c>
       <c r="E5">
-        <v>0.03997668394091747</v>
+        <v>0.07131354397096246</v>
       </c>
       <c r="F5">
-        <v>4.653259618105096</v>
+        <v>5.827805391536685</v>
       </c>
       <c r="G5">
-        <v>0.002620242048736728</v>
+        <v>0.0007348201848583465</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.967304793846353</v>
+        <v>4.475914993728736</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06053815395539885</v>
+        <v>0.06602551979343474</v>
       </c>
       <c r="M5">
-        <v>2.784054939707488</v>
+        <v>5.373018862797551</v>
       </c>
       <c r="N5">
-        <v>1.281177600569208</v>
+        <v>2.013504122625477</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05231297746340147</v>
+        <v>0.1600022436336985</v>
       </c>
       <c r="D6">
-        <v>0.3277287359880177</v>
+        <v>0.3066721836179767</v>
       </c>
       <c r="E6">
-        <v>0.03985041011627999</v>
+        <v>0.07086309045432415</v>
       </c>
       <c r="F6">
-        <v>4.647043869426</v>
+        <v>5.783440188244185</v>
       </c>
       <c r="G6">
-        <v>0.002620829926502153</v>
+        <v>0.0007358793181688574</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.963083717934353</v>
+        <v>4.442798605164285</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06045600857929401</v>
+        <v>0.06574207135027166</v>
       </c>
       <c r="M6">
-        <v>2.774522112480071</v>
+        <v>5.331685148797618</v>
       </c>
       <c r="N6">
-        <v>1.278266618913847</v>
+        <v>2.004514690506227</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05453158150083937</v>
+        <v>0.1691208471230112</v>
       </c>
       <c r="D7">
-        <v>0.3291281101753185</v>
+        <v>0.3221589454159925</v>
       </c>
       <c r="E7">
-        <v>0.04072604480015229</v>
+        <v>0.07400308082839757</v>
       </c>
       <c r="F7">
-        <v>4.690601962742818</v>
+        <v>6.095195060382963</v>
       </c>
       <c r="G7">
-        <v>0.00261678395817877</v>
+        <v>0.00072852624915969</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.992729549205791</v>
+        <v>4.675646377965336</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.061026450940318</v>
+        <v>0.06771290265613317</v>
       </c>
       <c r="M7">
-        <v>2.840808140000775</v>
+        <v>5.620344577825392</v>
       </c>
       <c r="N7">
-        <v>1.298516039969911</v>
+        <v>2.067045210308976</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0643024979012381</v>
+        <v>0.2115792299961186</v>
       </c>
       <c r="D8">
-        <v>0.3360392937708383</v>
+        <v>0.3976031458797564</v>
       </c>
       <c r="E8">
-        <v>0.04456962748237459</v>
+        <v>0.08828186678364247</v>
       </c>
       <c r="F8">
-        <v>4.893244184678423</v>
+        <v>7.585216783343611</v>
       </c>
       <c r="G8">
-        <v>0.002599780885489844</v>
+        <v>0.0006958235377166997</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.132279290639303</v>
+        <v>5.792474692136381</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06354997112855187</v>
+        <v>0.07651633231137112</v>
       </c>
       <c r="M8">
-        <v>3.136294114788797</v>
+        <v>6.947818880496442</v>
       </c>
       <c r="N8">
-        <v>1.388948167637892</v>
+        <v>2.346617048263255</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08343264707106357</v>
+        <v>0.3093743536544622</v>
       </c>
       <c r="D9">
-        <v>0.3523514522009066</v>
+        <v>0.5890331818656591</v>
       </c>
       <c r="E9">
-        <v>0.05203866304854188</v>
+        <v>0.1191726534128144</v>
       </c>
       <c r="F9">
-        <v>5.329974994012503</v>
+        <v>11.20715707797223</v>
       </c>
       <c r="G9">
-        <v>0.00256945789839395</v>
+        <v>0.000627632319262032</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.438755481021985</v>
+        <v>8.527608425558043</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.06851915543617082</v>
+        <v>0.09451082532811483</v>
       </c>
       <c r="M9">
-        <v>3.727142568257221</v>
+        <v>9.891462183810887</v>
       </c>
       <c r="N9">
-        <v>1.570038496100807</v>
+        <v>2.911738794132077</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09750786653569321</v>
+        <v>0.4028478385300645</v>
       </c>
       <c r="D10">
-        <v>0.3661303760228236</v>
+        <v>0.7907174758035467</v>
       </c>
       <c r="E10">
-        <v>0.05749026452753725</v>
+        <v>0.1463441690501774</v>
       </c>
       <c r="F10">
-        <v>5.676678987301273</v>
+        <v>14.84417569731283</v>
       </c>
       <c r="G10">
-        <v>0.002548983845367392</v>
+        <v>0.0005690769376330107</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.685363911683964</v>
+        <v>11.29488212805359</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.07218129541893603</v>
+        <v>0.1088999385213398</v>
       </c>
       <c r="M10">
-        <v>4.168927770780869</v>
+        <v>12.54251674547609</v>
       </c>
       <c r="N10">
-        <v>1.705297953045658</v>
+        <v>3.342066325937282</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1039243247435593</v>
+        <v>0.4575811081522261</v>
       </c>
       <c r="D11">
-        <v>0.3728139259267209</v>
+        <v>0.9157980011761993</v>
       </c>
       <c r="E11">
-        <v>0.05996387984879448</v>
+        <v>0.1613025027984705</v>
       </c>
       <c r="F11">
-        <v>5.840434975065818</v>
+        <v>17.02558913256883</v>
       </c>
       <c r="G11">
-        <v>0.00254005335619057</v>
+        <v>0.0005371645878775588</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.802534172299119</v>
+        <v>12.96231215454583</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07384952009905987</v>
+        <v>0.1161544009311584</v>
       </c>
       <c r="M11">
-        <v>4.371749322499397</v>
+        <v>14.01568300895701</v>
       </c>
       <c r="N11">
-        <v>1.76729793222313</v>
+        <v>3.54264026431116</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1063567547499815</v>
+        <v>0.4818785661652214</v>
       </c>
       <c r="D12">
-        <v>0.3754067132685464</v>
+        <v>0.9727566951694939</v>
       </c>
       <c r="E12">
-        <v>0.06089976547637477</v>
+        <v>0.1677382718086555</v>
       </c>
       <c r="F12">
-        <v>5.903348795310421</v>
+        <v>18.00189800237581</v>
       </c>
       <c r="G12">
-        <v>0.002536726074582002</v>
+        <v>0.0005235059015771947</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.847648031713106</v>
+        <v>13.71019536134037</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.07448153788870115</v>
+        <v>0.1191190718119515</v>
       </c>
       <c r="M12">
-        <v>4.448832753353656</v>
+        <v>14.65005800505557</v>
       </c>
       <c r="N12">
-        <v>1.790841933237459</v>
+        <v>3.619459787168978</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1058327577585487</v>
+        <v>0.4764261898470465</v>
       </c>
       <c r="D13">
-        <v>0.3748455235473784</v>
+        <v>0.9599034430048903</v>
       </c>
       <c r="E13">
-        <v>0.06069824063116513</v>
+        <v>0.1663045184632175</v>
       </c>
       <c r="F13">
-        <v>5.889758452467163</v>
+        <v>17.78248898153669</v>
       </c>
       <c r="G13">
-        <v>0.002537440250192292</v>
+        <v>0.0005265445529704047</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.837898424572359</v>
+        <v>13.54203896933993</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.07434540884479901</v>
+        <v>0.1184669265740439</v>
       </c>
       <c r="M13">
-        <v>4.432218819036166</v>
+        <v>14.50877224231266</v>
       </c>
       <c r="N13">
-        <v>1.785768402554083</v>
+        <v>3.602873644040358</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1041243848442832</v>
+        <v>0.4594884023240695</v>
       </c>
       <c r="D14">
-        <v>0.3730259835948857</v>
+        <v>0.9202388653961293</v>
       </c>
       <c r="E14">
-        <v>0.06004089157711334</v>
+        <v>0.1618120848330769</v>
       </c>
       <c r="F14">
-        <v>5.845592632752755</v>
+        <v>17.10208271998931</v>
       </c>
       <c r="G14">
-        <v>0.002539778530083367</v>
+        <v>0.0005360813849066709</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.806230647469164</v>
+        <v>13.02087415950407</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.07390151081074237</v>
+        <v>0.116392633249454</v>
       </c>
       <c r="M14">
-        <v>4.378085347484131</v>
+        <v>14.06592222083697</v>
       </c>
       <c r="N14">
-        <v>1.769233598384517</v>
+        <v>3.548941752580447</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1030783244578686</v>
+        <v>0.4496749833998592</v>
       </c>
       <c r="D15">
-        <v>0.3719195850374604</v>
+        <v>0.8974463384883506</v>
       </c>
       <c r="E15">
-        <v>0.05963814253684063</v>
+        <v>0.1591820366274561</v>
       </c>
       <c r="F15">
-        <v>5.818658438196849</v>
+        <v>16.70880303266625</v>
       </c>
       <c r="G15">
-        <v>0.002541217873274693</v>
+        <v>0.0005416749675331741</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.786930929999329</v>
+        <v>12.71985074529545</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.07362964819754581</v>
+        <v>0.1151566763248866</v>
       </c>
       <c r="M15">
-        <v>4.344963807993764</v>
+        <v>13.80663431935599</v>
       </c>
       <c r="N15">
-        <v>1.759114096641667</v>
+        <v>3.516025629212692</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09708886863907651</v>
+        <v>0.3996256072049107</v>
       </c>
       <c r="D16">
-        <v>0.3657021305420756</v>
+        <v>0.7835031986252829</v>
       </c>
       <c r="E16">
-        <v>0.05732848815120306</v>
+        <v>0.1454426548309797</v>
       </c>
       <c r="F16">
-        <v>5.666101591765937</v>
+        <v>14.71672410918154</v>
       </c>
       <c r="G16">
-        <v>0.002549575133623728</v>
+        <v>0.0005710070541778684</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.677809186016731</v>
+        <v>11.19762456548091</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.07207231640371958</v>
+        <v>0.1084469189603752</v>
       </c>
       <c r="M16">
-        <v>4.15571126220334</v>
+        <v>12.45392316881234</v>
       </c>
       <c r="N16">
-        <v>1.701255423044643</v>
+        <v>3.329069122406707</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09341850051168876</v>
+        <v>0.3727941090645288</v>
       </c>
       <c r="D17">
-        <v>0.3619958209788479</v>
+        <v>0.7241204678250597</v>
       </c>
       <c r="E17">
-        <v>0.05591002979421589</v>
+        <v>0.137841300359888</v>
       </c>
       <c r="F17">
-        <v>5.574083775118311</v>
+        <v>13.66051859100628</v>
       </c>
       <c r="G17">
-        <v>0.00255479977285545</v>
+        <v>0.0005873123667429437</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.612162619410213</v>
+        <v>10.39238803042062</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.07111750858075538</v>
+        <v>0.1045582726295464</v>
       </c>
       <c r="M17">
-        <v>4.040094218667633</v>
+        <v>11.70832454970576</v>
       </c>
       <c r="N17">
-        <v>1.665880156608722</v>
+        <v>3.215720411173351</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09130863537332345</v>
+        <v>0.3583584504592778</v>
       </c>
       <c r="D18">
-        <v>0.359903021468341</v>
+        <v>0.6926999423579616</v>
       </c>
       <c r="E18">
-        <v>0.05509356688321532</v>
+        <v>0.1336803281662</v>
       </c>
       <c r="F18">
-        <v>5.521723793211549</v>
+        <v>13.09636812604015</v>
       </c>
       <c r="G18">
-        <v>0.002557840958676909</v>
+        <v>0.0005962626075741788</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.574872165794204</v>
+        <v>9.962856720623876</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07056854667615653</v>
+        <v>0.1023786204584383</v>
       </c>
       <c r="M18">
-        <v>3.973767777646344</v>
+        <v>11.30143069398491</v>
       </c>
       <c r="N18">
-        <v>1.645577546462732</v>
+        <v>3.150965344746794</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09059446209825239</v>
+        <v>0.3536145655800027</v>
       </c>
       <c r="D19">
-        <v>0.3592010653127318</v>
+        <v>0.6824579865720466</v>
       </c>
       <c r="E19">
-        <v>0.05481702020256662</v>
+        <v>0.1323017946017586</v>
       </c>
       <c r="F19">
-        <v>5.504091819711391</v>
+        <v>12.91165668088257</v>
       </c>
       <c r="G19">
-        <v>0.002558876872336297</v>
+        <v>0.0005992319811392356</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.562325785612046</v>
+        <v>9.822311572315243</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07038271613193814</v>
+        <v>0.1016487345799817</v>
       </c>
       <c r="M19">
-        <v>3.951340181726351</v>
+        <v>11.16684833279328</v>
       </c>
       <c r="N19">
-        <v>1.638711091475699</v>
+        <v>3.129111437969101</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09380908477606908</v>
+        <v>0.3755400594388618</v>
       </c>
       <c r="D20">
-        <v>0.3623863153528646</v>
+        <v>0.7301398785038771</v>
       </c>
       <c r="E20">
-        <v>0.05606108887236161</v>
+        <v>0.1386270820588464</v>
       </c>
       <c r="F20">
-        <v>5.583820379127701</v>
+        <v>13.76817086769836</v>
       </c>
       <c r="G20">
-        <v>0.002554239868140837</v>
+        <v>0.0005856241825406844</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.619102209962705</v>
+        <v>10.47439806385393</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07121912715427925</v>
+        <v>0.1049658896269463</v>
       </c>
       <c r="M20">
-        <v>4.052383808749369</v>
+        <v>11.7852711916764</v>
       </c>
       <c r="N20">
-        <v>1.669641340308033</v>
+        <v>3.227739913453092</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1046260975313089</v>
+        <v>0.4643385756492933</v>
       </c>
       <c r="D21">
-        <v>0.3735587300115242</v>
+        <v>0.9315554117315799</v>
       </c>
       <c r="E21">
-        <v>0.06023399237920302</v>
+        <v>0.1631045237393671</v>
       </c>
       <c r="F21">
-        <v>5.858540415332641</v>
+        <v>17.29672134024975</v>
       </c>
       <c r="G21">
-        <v>0.00253909024630938</v>
+        <v>0.0005333353612110745</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.815511828975417</v>
+        <v>13.16991247643264</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.07403188661488258</v>
+        <v>0.1169941741727456</v>
       </c>
       <c r="M21">
-        <v>4.39397797210367</v>
+        <v>14.19334064949376</v>
       </c>
       <c r="N21">
-        <v>1.774088493501722</v>
+        <v>3.564757760071927</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.111711471808178</v>
+        <v>0.5477007148351447</v>
       </c>
       <c r="D22">
-        <v>0.3812222341598499</v>
+        <v>1.130911196562408</v>
       </c>
       <c r="E22">
-        <v>0.06295650061222702</v>
+        <v>0.1846006452967153</v>
       </c>
       <c r="F22">
-        <v>6.043366135454391</v>
+        <v>20.65970507359424</v>
       </c>
       <c r="G22">
-        <v>0.002529506473611432</v>
+        <v>0.0004879958440961559</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.948226848549837</v>
+        <v>15.75071909833972</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.07587190579486958</v>
+        <v>0.1264269544868242</v>
       </c>
       <c r="M22">
-        <v>4.618864110441024</v>
+        <v>16.30575850363653</v>
       </c>
       <c r="N22">
-        <v>1.842734498500022</v>
+        <v>3.790146647898183</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1079281855825514</v>
+        <v>0.4990819783550364</v>
       </c>
       <c r="D23">
-        <v>0.377098258107452</v>
+        <v>1.013572496705422</v>
       </c>
       <c r="E23">
-        <v>0.06150384680079313</v>
+        <v>0.1722236061492843</v>
       </c>
       <c r="F23">
-        <v>5.944226232374149</v>
+        <v>18.69519290244631</v>
       </c>
       <c r="G23">
-        <v>0.002534592678006686</v>
+        <v>0.0005140170002129789</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.876987157458075</v>
+        <v>14.24184509357426</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.07488970641890802</v>
+        <v>0.1211281996938709</v>
       </c>
       <c r="M23">
-        <v>4.49868407344178</v>
+        <v>15.09174789330552</v>
       </c>
       <c r="N23">
-        <v>1.806062226132383</v>
+        <v>3.669325643858087</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09363250081618446</v>
+        <v>0.3742956241874396</v>
       </c>
       <c r="D24">
-        <v>0.3622096546227453</v>
+        <v>0.7274102795666977</v>
       </c>
       <c r="E24">
-        <v>0.0559927980987176</v>
+        <v>0.1382711989479759</v>
       </c>
       <c r="F24">
-        <v>5.579416773958087</v>
+        <v>13.71937095159871</v>
       </c>
       <c r="G24">
-        <v>0.002554492884237615</v>
+        <v>0.0005863886890499715</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.615963419480522</v>
+        <v>10.43722024687378</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07117318548849738</v>
+        <v>0.1047814373877785</v>
       </c>
       <c r="M24">
-        <v>4.046827239591693</v>
+        <v>11.75041780477582</v>
       </c>
       <c r="N24">
-        <v>1.667940799700972</v>
+        <v>3.22230463003919</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07825676447131968</v>
+        <v>0.2804662228055292</v>
       </c>
       <c r="D25">
-        <v>0.3476318194422561</v>
+        <v>0.5301514806871808</v>
       </c>
       <c r="E25">
-        <v>0.05002482166145228</v>
+        <v>0.110317579586539</v>
       </c>
       <c r="F25">
-        <v>5.207427888473717</v>
+        <v>10.11331266663541</v>
       </c>
       <c r="G25">
-        <v>0.002577341534515871</v>
+        <v>0.0006469396211426159</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.352186985479904</v>
+        <v>7.699062951749852</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.06717279076266891</v>
+        <v>0.08951551453479567</v>
       </c>
       <c r="M25">
-        <v>3.566007546668061</v>
+        <v>9.038712541644173</v>
       </c>
       <c r="N25">
-        <v>1.520655096504186</v>
+        <v>2.756617108371273</v>
       </c>
       <c r="O25">
         <v>0</v>
